--- a/xlsx/托尼奖_intext.xlsx
+++ b/xlsx/托尼奖_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>托尼奖</t>
   </si>
@@ -26,22 +26,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_托尼奖</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_托尼奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%87%E5%A0%B4_(%E8%97%9D%E8%A1%93)</t>
   </si>
   <si>
-    <t>劇場 (藝術)</t>
+    <t>剧场 (艺术)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%9D%E5%89%A7</t>
@@ -89,7 +86,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>格林美獎</t>
+    <t>格林美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%BC%94%E5%91%98</t>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E8%97%9D%E8%A1%93%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>林肯藝術中心</t>
+    <t>林肯艺术中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%E5%A5%96%E6%9C%80%E4%BD%B3%E9%9F%B3%E4%B9%90%E5%89%A7</t>
@@ -641,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>15</v>
@@ -667,10 +664,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -696,10 +693,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>32</v>
@@ -725,10 +722,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>50</v>
@@ -754,10 +751,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -783,10 +780,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -812,10 +809,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -841,10 +838,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -870,10 +867,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>57</v>
@@ -899,10 +896,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -928,10 +925,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -957,10 +954,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>19</v>
@@ -986,10 +983,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1015,10 +1012,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1044,10 +1041,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>7</v>
@@ -1073,10 +1070,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1102,10 +1099,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1131,10 +1128,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1160,10 +1157,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
         <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1189,10 +1186,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
         <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1218,10 +1215,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
         <v>39</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1247,10 +1244,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
         <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1276,10 +1273,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1305,10 +1302,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
         <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
       </c>
       <c r="G26" t="n">
         <v>33</v>
@@ -1334,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
         <v>47</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -1363,10 +1360,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
         <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1392,10 +1389,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -1421,10 +1418,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>9</v>
@@ -1450,10 +1447,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>13</v>
@@ -1479,10 +1476,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>7</v>
@@ -1508,10 +1505,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>14</v>
@@ -1537,10 +1534,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -1566,10 +1563,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1595,10 +1592,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
